--- a/IO_s5_test1.xlsx
+++ b/IO_s5_test1.xlsx
@@ -123,10 +123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -136,74 +136,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="n">
         <f aca="false">E1-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
         <f aca="false">E2-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">E3-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">E4-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,14 +214,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">E5-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -229,115 +229,115 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">E6-1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1</v>
@@ -352,10 +352,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
@@ -368,15 +368,168 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E14-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E15-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">E16-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">E17-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">E18-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">E19-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">E20-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">E21-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <f aca="false">E22-1</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -619,7 +772,7 @@
   <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F13:F22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/IO_s5_test1.xlsx
+++ b/IO_s5_test1.xlsx
@@ -126,7 +126,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13:F22"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -175,7 +175,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>5</v>
@@ -193,7 +193,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>5</v>
@@ -211,7 +211,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>5</v>
@@ -772,7 +772,7 @@
   <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F13:F22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/IO_s5_test1.xlsx
+++ b/IO_s5_test1.xlsx
@@ -126,7 +126,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
